--- a/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A056EE1-3107-44B1-BAB5-3CEE83541220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0C2F23-195F-4C6D-B2A9-F5C1D55D5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B233A200-287A-4C4F-90D1-2E07DDF2067C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6920F5-E030-4CC8-8542-5D969CBEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,18 +67,252 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>5,97%</t>
   </si>
   <si>
@@ -100,9 +334,6 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>35,79%</t>
   </si>
   <si>
@@ -130,9 +361,6 @@
     <t>41,66%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>59,82%</t>
   </si>
   <si>
@@ -160,159 +388,147 @@
     <t>64,4%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>2,99%</t>
   </si>
   <si>
@@ -391,220 +607,43 @@
     <t>53,6%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -688,54 +727,201 @@
     <t>57,77%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
     <t>7,13%</t>
   </si>
   <si>
@@ -808,124 +994,130 @@
     <t>54,42%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>4,73%</t>
@@ -1003,196 +1195,28 @@
     <t>46,75%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -1273,33 +1297,186 @@
     <t>47,54%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>2,44%</t>
   </si>
   <si>
@@ -1312,9 +1489,6 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
     <t>6,01%</t>
   </si>
   <si>
@@ -1372,100 +1546,130 @@
     <t>65,38%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>3,76%</t>
@@ -1537,208 +1741,34 @@
     <t>66,9%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -1799,36 +1829,6 @@
   </si>
   <si>
     <t>64,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA6454-7ED2-45E2-807C-BEE6412FCC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B1BC7-335C-4077-B348-B9D254C90188}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2353,238 +2353,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2432</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3816</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>32969</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>36752</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>69721</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>55101</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>57521</v>
+        <v>806</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>112622</v>
+        <v>806</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>4804</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>5277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>680</v>
+        <v>10081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>1971</v>
+        <v>7676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>2476</v>
+        <v>7259</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>4447</v>
+        <v>14936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,306 +2593,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>191285</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1962</v>
+        <v>635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2579</v>
+        <v>635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>15947</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>23205</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>39152</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1962</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>616</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2579</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="7">
-        <v>36944</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20339</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="7">
-        <v>89</v>
-      </c>
-      <c r="N12" s="7">
-        <v>57283</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>635</v>
+        <v>15947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>23205</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>635</v>
+        <v>39152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>36944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>20339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>57283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2907,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -2922,13 +2922,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2937,270 +2937,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2632</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6969</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>9601</v>
+        <v>680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>40832</v>
+        <v>1971</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>32018</v>
+        <v>2476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>72850</v>
+        <v>4447</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>42053</v>
+        <v>1384</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>37804</v>
+        <v>2432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>79857</v>
+        <v>3816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>1268</v>
+        <v>32969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>36752</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="N19" s="7">
-        <v>1268</v>
+        <v>69721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>1344</v>
+        <v>55101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>1519</v>
+        <v>57521</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="N20" s="7">
-        <v>2863</v>
+        <v>112622</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,54 +3209,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3268,247 +3268,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>806</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>4804</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>5277</v>
+        <v>632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>10081</v>
+        <v>632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7676</v>
+        <v>1917</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>7259</v>
+        <v>2260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>14936</v>
+        <v>4176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25857</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21654</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>47511</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>33120</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>31107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>64228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,303 +3517,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>116547</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1917</v>
+        <v>1268</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>2260</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>4176</v>
+        <v>1268</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>25857</v>
+        <v>1344</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>21654</v>
+        <v>1519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>47511</v>
+        <v>2863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>33120</v>
+        <v>2632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>31107</v>
+        <v>6969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>64228</v>
+        <v>9601</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>40832</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>32018</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>72850</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>42053</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I32" s="7">
-        <v>632</v>
+        <v>37804</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="7">
+        <v>110</v>
+      </c>
+      <c r="N32" s="7">
+        <v>79857</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>632</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>188</v>
@@ -3825,49 +3825,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>60894</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>116547</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,10 +3878,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>7895</v>
+        <v>2582</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>189</v>
@@ -3893,235 +3893,235 @@
         <v>191</v>
       </c>
       <c r="H34" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>13083</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="M34" s="7">
-        <v>31</v>
-      </c>
-      <c r="N34" s="7">
-        <v>20978</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>120408</v>
+        <v>3315</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4627</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="K35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>12</v>
+      </c>
+      <c r="N35" s="7">
+        <v>7942</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="7">
-        <v>177</v>
-      </c>
-      <c r="I35" s="7">
-        <v>118906</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M35" s="7">
-        <v>355</v>
-      </c>
-      <c r="N35" s="7">
-        <v>239314</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D36" s="7">
-        <v>174895</v>
+        <v>7895</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="7">
+        <v>19</v>
+      </c>
+      <c r="I36" s="7">
+        <v>13083</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>31</v>
+      </c>
+      <c r="N36" s="7">
+        <v>20978</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="7">
-        <v>229</v>
-      </c>
-      <c r="I36" s="7">
-        <v>154030</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="7">
-        <v>495</v>
-      </c>
-      <c r="N36" s="7">
-        <v>328925</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D37" s="7">
-        <v>2582</v>
+        <v>120408</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="7">
+        <v>177</v>
+      </c>
+      <c r="I37" s="7">
+        <v>118906</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>355</v>
+      </c>
+      <c r="N37" s="7">
+        <v>239314</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2582</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="D38" s="7">
-        <v>3315</v>
+        <v>174895</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>229</v>
+      </c>
+      <c r="I38" s="7">
+        <v>154030</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H38" s="7">
-        <v>7</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4627</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>495</v>
+      </c>
+      <c r="N38" s="7">
+        <v>328925</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M38" s="7">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7">
-        <v>7942</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>228</v>
@@ -4139,13 +4139,13 @@
         <v>309095</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>432</v>
@@ -4154,13 +4154,13 @@
         <v>290646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>897</v>
@@ -4169,13 +4169,13 @@
         <v>599741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4196,7 +4196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B04508-DAF3-47FA-B6EC-7B74D4DB9D7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F5814E-0B0A-45A5-B24C-67D25B97B2EC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,253 +4314,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3121</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5219</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="7">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8340</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>39030</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>48811</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>87841</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>51059</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>42561</v>
+        <v>1630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>93619</v>
+        <v>1630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>10198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>5452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>652</v>
+        <v>15650</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>1305</v>
+        <v>4292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1246</v>
+        <v>4193</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>2551</v>
+        <v>8486</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,306 +4569,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2124</v>
+        <v>687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2820</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4944</v>
+        <v>687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>27587</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>30544</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>58131</v>
+        <v>661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>27775</v>
+        <v>2124</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>18147</v>
+        <v>2820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>45922</v>
+        <v>4944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
         <v>40</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
       <c r="D13" s="7">
-        <v>687</v>
+        <v>27587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>30544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>687</v>
+        <v>58131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>27775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>661</v>
+        <v>18147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>661</v>
+        <v>45922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4883,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4898,13 +4898,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -4913,270 +4913,270 @@
         <v>110345</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4253</v>
+        <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>9297</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>13550</v>
+        <v>652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>37190</v>
+        <v>1305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>50066</v>
+        <v>1246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>87256</v>
+        <v>2551</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>45157</v>
+        <v>3121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>25067</v>
+        <v>5219</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>70224</v>
+        <v>8340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>1545</v>
+        <v>39030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>594</v>
+        <v>48811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="N19" s="7">
-        <v>2139</v>
+        <v>87841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7">
-        <v>1708</v>
+        <v>51059</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>42561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="N20" s="7">
-        <v>1708</v>
+        <v>93619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,306 +5185,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85024</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>174877</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1630</v>
+        <v>1086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>1630</v>
+        <v>1693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>10198</v>
+        <v>1797</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>5452</v>
+        <v>1335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>15650</v>
+        <v>3131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>4292</v>
+        <v>2817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4193</v>
+        <v>2454</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>124</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>8486</v>
+        <v>5272</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>35394</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M25" s="7">
+        <v>94</v>
+      </c>
+      <c r="N25" s="7">
+        <v>60125</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>39129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>24223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>63352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,303 +5493,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>64492</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>133573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>2817</v>
+        <v>1545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>2454</v>
+        <v>594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2139</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="M28" s="7">
-        <v>9</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5272</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>24731</v>
+        <v>1708</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1708</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H29" s="7">
-        <v>55</v>
-      </c>
-      <c r="I29" s="7">
-        <v>35394</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M29" s="7">
-        <v>94</v>
-      </c>
-      <c r="N29" s="7">
-        <v>60125</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>39129</v>
+        <v>4253</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="7">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9297</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M30" s="7">
+        <v>17</v>
+      </c>
+      <c r="N30" s="7">
+        <v>13550</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="7">
-        <v>36</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24223</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M30" s="7">
-        <v>97</v>
-      </c>
-      <c r="N30" s="7">
-        <v>63352</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
-        <v>607</v>
+        <v>37190</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="7">
+        <v>64</v>
+      </c>
+      <c r="I31" s="7">
+        <v>50066</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M31" s="7">
+        <v>115</v>
+      </c>
+      <c r="N31" s="7">
+        <v>87256</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1086</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1693</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D32" s="7">
-        <v>1797</v>
+        <v>45157</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="7">
+        <v>33</v>
+      </c>
+      <c r="I32" s="7">
+        <v>25067</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1335</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>95</v>
+      </c>
+      <c r="N32" s="7">
+        <v>70224</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="M32" s="7">
-        <v>5</v>
-      </c>
-      <c r="N32" s="7">
-        <v>3131</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>384</v>
@@ -5801,49 +5801,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>123</v>
+      </c>
+      <c r="D33" s="7">
+        <v>89854</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="7">
         <v>109</v>
       </c>
-      <c r="D33" s="7">
-        <v>69081</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="7">
-        <v>99</v>
-      </c>
       <c r="I33" s="7">
-        <v>64492</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N33" s="7">
-        <v>133573</v>
+        <v>174877</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,247 +5854,247 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>12316</v>
+        <v>3492</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>8</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5172</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H34" s="7">
-        <v>29</v>
-      </c>
-      <c r="I34" s="7">
-        <v>21420</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="M34" s="7">
-        <v>48</v>
-      </c>
-      <c r="N34" s="7">
-        <v>33736</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>393</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>138735</v>
+        <v>4810</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>165</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>394</v>
+        <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H35" s="7">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>170266</v>
+        <v>3241</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>397</v>
+        <v>196</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M35" s="7">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>309001</v>
+        <v>8051</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>50</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7">
-        <v>167413</v>
+        <v>12316</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="H36" s="7">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I36" s="7">
-        <v>114190</v>
+        <v>21420</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M36" s="7">
-        <v>409</v>
+        <v>48</v>
       </c>
       <c r="N36" s="7">
-        <v>281602</v>
+        <v>33736</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D37" s="7">
-        <v>3492</v>
+        <v>138735</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="I37" s="7">
-        <v>1680</v>
+        <v>170266</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="N37" s="7">
-        <v>5172</v>
+        <v>309001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="D38" s="7">
-        <v>4810</v>
+        <v>167413</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>164</v>
+      </c>
+      <c r="I38" s="7">
+        <v>114190</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H38" s="7">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3241</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>409</v>
+      </c>
+      <c r="N38" s="7">
+        <v>281602</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="M38" s="7">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7">
-        <v>8051</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>417</v>
@@ -6115,13 +6115,13 @@
         <v>326766</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6130,13 +6130,13 @@
         <v>310798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>917</v>
@@ -6145,13 +6145,13 @@
         <v>637563</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B29F4FC-EBB7-4030-9510-8F378A159022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B077B4D-45B4-4E84-8ED7-B464487F1BF3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6290,253 +6290,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5497</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1808</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7305</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>34846</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>36918</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>71764</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>62288</v>
+        <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>60972</v>
+        <v>600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M6" s="7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>123260</v>
+        <v>1647</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5892</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4542</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M7" s="7">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
       <c r="N7" s="7">
-        <v>1244</v>
+        <v>10434</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>434</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>1379</v>
+        <v>6268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7580</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13849</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1243</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2623</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,306 +6545,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102185</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>206196</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1452</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2814</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>20797</v>
+        <v>1451</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>21041</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>41839</v>
+        <v>1451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>462</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>34136</v>
+        <v>1452</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>33878</v>
+        <v>1362</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>465</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>68014</v>
+        <v>2814</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>20797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>41839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>1451</v>
+        <v>34136</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>33878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M14" s="7">
+        <v>92</v>
+      </c>
+      <c r="N14" s="7">
+        <v>68014</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1451</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6859,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6874,13 +6874,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6889,270 +6889,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3744</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>477</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>4186</v>
+        <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>7930</v>
+        <v>1244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>480</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>29521</v>
+        <v>1379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>482</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H17" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>38585</v>
+        <v>1243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>68106</v>
+        <v>2623</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>64018</v>
+        <v>5497</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H18" s="7">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>60321</v>
+        <v>1808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>494</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="M18" s="7">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>124338</v>
+        <v>7305</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>496</v>
+        <v>51</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>1482</v>
+        <v>34846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>792</v>
+        <v>36918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>487</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="N19" s="7">
-        <v>2274</v>
+        <v>71764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>763</v>
+        <v>62288</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>60972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>497</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="N20" s="7">
-        <v>763</v>
+        <v>123260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,54 +7161,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102185</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>206196</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7217,250 +7217,250 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1047</v>
+        <v>588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1647</v>
+        <v>588</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>196</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>5892</v>
+        <v>1544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>514</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>4542</v>
+        <v>765</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>517</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>10434</v>
+        <v>2309</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>6268</v>
+        <v>1913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H24" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>7580</v>
+        <v>2652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>88</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>13849</v>
+        <v>4566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>22616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>517</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>518</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>519</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>16550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>39166</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>43</v>
+        <v>524</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>47959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>527</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>528</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>49942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>43</v>
+        <v>530</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M26" s="7">
+        <v>145</v>
+      </c>
+      <c r="N26" s="7">
+        <v>97901</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="P26" s="7" t="s">
-        <v>43</v>
+        <v>533</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,297 +7469,297 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1482</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>792</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
-        <v>1913</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2652</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="N28" s="7">
+        <v>2274</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4566</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>22616</v>
+        <v>763</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>763</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H29" s="7">
-        <v>26</v>
-      </c>
-      <c r="I29" s="7">
-        <v>16550</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="M29" s="7">
-        <v>56</v>
-      </c>
-      <c r="N29" s="7">
-        <v>39166</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>47959</v>
+        <v>3744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>552</v>
+        <v>290</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H30" s="7">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>49942</v>
+        <v>4186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="M30" s="7">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>97901</v>
+        <v>7930</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D31" s="7">
-        <v>588</v>
+        <v>29521</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>12</v>
+        <v>550</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>38585</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>43</v>
+        <v>553</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="N31" s="7">
-        <v>588</v>
+        <v>68106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>555</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>12</v>
+        <v>556</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7">
-        <v>1544</v>
+        <v>64018</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>382</v>
+        <v>558</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>12</v>
+        <v>559</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H32" s="7">
+        <v>77</v>
+      </c>
+      <c r="I32" s="7">
+        <v>60321</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>765</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>563</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="N32" s="7">
-        <v>2309</v>
+        <v>124338</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>564</v>
@@ -7777,49 +7777,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,10 +7830,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>13653</v>
+        <v>2070</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>567</v>
@@ -7842,241 +7842,241 @@
         <v>568</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="H34" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>10608</v>
+        <v>2035</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>356</v>
+        <v>570</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="M34" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N34" s="7">
-        <v>24261</v>
+        <v>4105</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>262</v>
+        <v>567</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>14</v>
+        <v>571</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>113672</v>
+        <v>5138</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>571</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>572</v>
+        <v>258</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>573</v>
       </c>
       <c r="H35" s="7">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>117637</v>
+        <v>2009</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>574</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="M35" s="7">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>231309</v>
+        <v>7146</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>578</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="D36" s="7">
-        <v>214670</v>
+        <v>13653</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="7">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10608</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="M36" s="7">
+        <v>34</v>
+      </c>
+      <c r="N36" s="7">
+        <v>24261</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H36" s="7">
-        <v>300</v>
-      </c>
-      <c r="I36" s="7">
-        <v>212694</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M36" s="7">
-        <v>594</v>
-      </c>
-      <c r="N36" s="7">
-        <v>427363</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="D37" s="7">
-        <v>2070</v>
+        <v>113672</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="H37" s="7">
+        <v>171</v>
+      </c>
+      <c r="I37" s="7">
+        <v>117637</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="7">
+        <v>328</v>
+      </c>
+      <c r="N37" s="7">
+        <v>231309</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2035</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4105</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="D38" s="7">
-        <v>5138</v>
+        <v>214670</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>412</v>
+        <v>589</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>294</v>
+        <v>590</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H38" s="7">
+        <v>300</v>
+      </c>
+      <c r="I38" s="7">
+        <v>212694</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="H38" s="7">
-        <v>3</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2009</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" s="7">
         <v>594</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="N38" s="7">
+        <v>427363</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="M38" s="7">
-        <v>10</v>
-      </c>
-      <c r="N38" s="7">
-        <v>7146</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8091,13 @@
         <v>349203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -8106,13 +8106,13 @@
         <v>344983</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>972</v>
@@ -8121,13 +8121,13 @@
         <v>694185</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0C2F23-195F-4C6D-B2A9-F5C1D55D5B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F832993-3865-4F9F-8DB8-9A81AFAB4497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6920F5-E030-4CC8-8542-5D969CBEEAE3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D889740-F77E-404B-9669-821293FDCC38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="605">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -70,1765 +70,1789 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1863,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1935,39 +1959,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2019,7 +2043,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2130,13 +2154,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2145,6 +2162,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2209,19 +2233,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38B1BC7-335C-4077-B348-B9D254C90188}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E74DDBA-CB49-44CB-BDAE-459A492A0D5E}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2338,10 +2382,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7676</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2353,91 +2397,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7259</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>14936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4804</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5277</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10081</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2446,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2461,13 +2505,13 @@
         <v>806</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2476,115 +2520,115 @@
         <v>806</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4804</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5277</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>10081</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7676</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7259</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14936</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,106 +2690,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>635</v>
+        <v>36944</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>20339</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>635</v>
+        <v>57283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>15947</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>23205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>39152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -2754,13 +2798,13 @@
         <v>1962</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2769,13 +2813,13 @@
         <v>616</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2784,112 +2828,112 @@
         <v>2579</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>15947</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23205</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>39152</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>635</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36944</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20339</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>57283</v>
+        <v>635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>76</v>
@@ -2954,106 +2998,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>680</v>
+        <v>55101</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>57521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>680</v>
+        <v>112622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>1971</v>
+        <v>32969</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>2476</v>
+        <v>36752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="N17" s="7">
-        <v>4447</v>
+        <v>69721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -3062,13 +3106,13 @@
         <v>1384</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3077,13 +3121,13 @@
         <v>2432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -3092,115 +3136,115 @@
         <v>3816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>32969</v>
+        <v>1971</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2476</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7">
-        <v>58</v>
-      </c>
-      <c r="I19" s="7">
-        <v>36752</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
+        <v>7</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4447</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N19" s="7">
-        <v>69721</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>680</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>84</v>
-      </c>
-      <c r="D20" s="7">
-        <v>55101</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7">
-        <v>57521</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>112622</v>
+        <v>680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,112 +3300,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>33120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>31107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>64228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>25857</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I23" s="7">
-        <v>632</v>
+        <v>21654</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N23" s="7">
-        <v>632</v>
+        <v>47511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3370,13 +3414,13 @@
         <v>1917</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3385,13 +3429,13 @@
         <v>2260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -3400,115 +3444,115 @@
         <v>4176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>25857</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>21654</v>
+        <v>632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>47511</v>
+        <v>632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="7">
-        <v>53</v>
-      </c>
-      <c r="D26" s="7">
-        <v>33120</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>31107</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>64228</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,112 +3608,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D28" s="7">
-        <v>1268</v>
+        <v>42053</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>37804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N28" s="7">
-        <v>1268</v>
+        <v>79857</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7">
-        <v>1344</v>
+        <v>40832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I29" s="7">
-        <v>1519</v>
+        <v>32018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="N29" s="7">
-        <v>2863</v>
+        <v>72850</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -3678,13 +3722,13 @@
         <v>2632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3693,13 +3737,13 @@
         <v>6969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3708,112 +3752,112 @@
         <v>9601</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>40832</v>
+        <v>1344</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>32018</v>
+        <v>1519</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>72850</v>
+        <v>2863</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>61</v>
-      </c>
-      <c r="D32" s="7">
-        <v>42053</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="7">
-        <v>49</v>
-      </c>
-      <c r="I32" s="7">
-        <v>37804</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>79857</v>
+        <v>1268</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>188</v>
@@ -3878,10 +3922,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="D34" s="7">
-        <v>2582</v>
+        <v>174895</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>189</v>
@@ -3893,91 +3937,91 @@
         <v>191</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>154030</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>495</v>
       </c>
       <c r="N34" s="7">
-        <v>2582</v>
+        <v>328925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="D35" s="7">
-        <v>3315</v>
+        <v>120408</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="I35" s="7">
-        <v>4627</v>
+        <v>118906</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="N35" s="7">
-        <v>7942</v>
+        <v>239314</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>12</v>
@@ -3986,13 +4030,13 @@
         <v>7895</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -4001,13 +4045,13 @@
         <v>13083</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -4016,115 +4060,115 @@
         <v>20978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>120408</v>
+        <v>3315</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>118906</v>
+        <v>4627</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="M37" s="7">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>239314</v>
+        <v>7942</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2582</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7">
-        <v>266</v>
-      </c>
-      <c r="D38" s="7">
-        <v>174895</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="L38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="7">
+        <v>4</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I38" s="7">
-        <v>154030</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M38" s="7">
-        <v>495</v>
-      </c>
-      <c r="N38" s="7">
-        <v>328925</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,6 +4220,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4196,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F5814E-0B0A-45A5-B24C-67D25B97B2EC}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79B16F-E025-4F2C-92EA-FCED9F44CD25}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4213,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,106 +4363,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4292</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>8486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>10198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>5452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>15650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4422,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4437,13 +4486,13 @@
         <v>1630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4452,115 +4501,115 @@
         <v>1630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>10198</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5452</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>15650</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4292</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4193</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>8486</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,106 +4671,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>687</v>
+        <v>27775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>18147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>687</v>
+        <v>45922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>27587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>30544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>661</v>
+        <v>58131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -4730,13 +4779,13 @@
         <v>2124</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4745,13 +4794,13 @@
         <v>2820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4760,115 +4809,115 @@
         <v>4944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>27587</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>30544</v>
+        <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>58131</v>
+        <v>661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>687</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7">
-        <v>27775</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18147</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>45922</v>
+        <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,106 +4979,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>652</v>
+        <v>51059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>42561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>652</v>
+        <v>93619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>1305</v>
+        <v>39030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I17" s="7">
-        <v>1246</v>
+        <v>48811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="N17" s="7">
-        <v>2551</v>
+        <v>87841</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -5038,13 +5087,13 @@
         <v>3121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5053,13 +5102,13 @@
         <v>5219</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -5068,115 +5117,115 @@
         <v>8340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>39030</v>
+        <v>1305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>48811</v>
+        <v>1246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>87841</v>
+        <v>2551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>652</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>76</v>
-      </c>
-      <c r="D20" s="7">
-        <v>51059</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>64</v>
-      </c>
-      <c r="I20" s="7">
-        <v>42561</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>93619</v>
+        <v>652</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,112 +5281,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>607</v>
+        <v>39129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>1086</v>
+        <v>24223</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="N22" s="7">
-        <v>1693</v>
+        <v>63351</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>1797</v>
+        <v>24731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="I23" s="7">
-        <v>1335</v>
+        <v>35394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>3131</v>
+        <v>60124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -5346,13 +5395,13 @@
         <v>2817</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5361,13 +5410,13 @@
         <v>2454</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5376,115 +5425,115 @@
         <v>5272</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>24731</v>
+        <v>1797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>35394</v>
+        <v>1335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>60125</v>
+        <v>3131</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>39129</v>
+        <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>24223</v>
+        <v>1086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>63352</v>
+        <v>1693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5575,7 @@
         <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>133573</v>
+        <v>133572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>42</v>
@@ -5540,112 +5589,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7">
-        <v>1545</v>
+        <v>45157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I28" s="7">
-        <v>594</v>
+        <v>25067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>51</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="N28" s="7">
-        <v>2139</v>
+        <v>70224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
-        <v>1708</v>
+        <v>37190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>50065</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="N29" s="7">
-        <v>1708</v>
+        <v>87256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -5654,13 +5703,13 @@
         <v>4253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5669,13 +5718,13 @@
         <v>9297</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5684,115 +5733,115 @@
         <v>13550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>37190</v>
+        <v>1708</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="H31" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>50066</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="M31" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>87256</v>
+        <v>1708</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>45157</v>
+        <v>1545</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="H32" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>25067</v>
+        <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M32" s="7">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>70224</v>
+        <v>2139</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>382</v>
+        <v>113</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5868,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85024</v>
+        <v>85023</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -5854,106 +5903,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="D34" s="7">
-        <v>3492</v>
+        <v>167413</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>392</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="I34" s="7">
-        <v>1680</v>
+        <v>114190</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>121</v>
+        <v>395</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="M34" s="7">
-        <v>8</v>
+        <v>409</v>
       </c>
       <c r="N34" s="7">
-        <v>5172</v>
+        <v>281602</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="D35" s="7">
-        <v>4810</v>
+        <v>138735</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>125</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>57</v>
+        <v>399</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="I35" s="7">
-        <v>3241</v>
+        <v>170266</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="N35" s="7">
-        <v>8051</v>
+        <v>309001</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>19</v>
@@ -5962,13 +6011,13 @@
         <v>12316</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -5977,13 +6026,13 @@
         <v>21420</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -5992,115 +6041,115 @@
         <v>33736</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>138735</v>
+        <v>4810</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>402</v>
+        <v>68</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="H37" s="7">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>170266</v>
+        <v>3241</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>405</v>
+        <v>217</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="M37" s="7">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>309001</v>
+        <v>8051</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>407</v>
+        <v>72</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>245</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>167413</v>
+        <v>3492</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>412</v>
+        <v>108</v>
       </c>
       <c r="H38" s="7">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>114190</v>
+        <v>1680</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="M38" s="7">
-        <v>409</v>
+        <v>8</v>
       </c>
       <c r="N38" s="7">
-        <v>281602</v>
+        <v>5172</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,6 +6201,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6172,8 +6226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B077B4D-45B4-4E84-8ED7-B464487F1BF3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB08033-405A-4694-A91A-E2CE9B219247}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6189,7 +6243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6290,106 +6344,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13849</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4542</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6398,13 +6452,13 @@
         <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6413,13 +6467,13 @@
         <v>600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6428,115 +6482,115 @@
         <v>1647</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5892</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>428</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4542</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>10434</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>434</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6268</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>438</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7580</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>13849</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,106 +6652,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>34136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>33878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>454</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>455</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>68014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>1451</v>
+        <v>20797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>21041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>464</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>1451</v>
+        <v>41839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -6706,13 +6760,13 @@
         <v>1452</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6721,13 +6775,13 @@
         <v>1362</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -6736,115 +6790,115 @@
         <v>2814</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>455</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>20797</v>
+        <v>1451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>458</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>21041</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>460</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>461</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>41839</v>
+        <v>1451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>463</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34136</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>33878</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>468</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>68014</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,106 +6960,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>62288</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>1244</v>
+        <v>60972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="N16" s="7">
-        <v>1244</v>
+        <v>123260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>474</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>1379</v>
+        <v>34846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>1243</v>
+        <v>36918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>490</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="N17" s="7">
-        <v>2623</v>
+        <v>71764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -7014,13 +7068,13 @@
         <v>5497</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7029,13 +7083,13 @@
         <v>1808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -7044,115 +7098,115 @@
         <v>7305</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>34846</v>
+        <v>1379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>36918</v>
+        <v>1243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>487</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>71764</v>
+        <v>2623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>89</v>
-      </c>
-      <c r="D20" s="7">
-        <v>62288</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>60972</v>
+        <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>496</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>497</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M20" s="7">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>123260</v>
+        <v>1244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>499</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>500</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,112 +7262,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>588</v>
+        <v>47959</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>49942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N22" s="7">
-        <v>588</v>
+        <v>97901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>196</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7">
-        <v>1544</v>
+        <v>22616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>516</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7">
-        <v>765</v>
+        <v>16550</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="N23" s="7">
-        <v>2309</v>
+        <v>39166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -7322,13 +7376,13 @@
         <v>1913</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7337,13 +7391,13 @@
         <v>2652</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>88</v>
+        <v>528</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -7352,115 +7406,115 @@
         <v>4566</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>516</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>22616</v>
+        <v>1544</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>518</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>16550</v>
+        <v>765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>39166</v>
+        <v>2309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>588</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>68</v>
-      </c>
-      <c r="D26" s="7">
-        <v>47959</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="H26" s="7">
-        <v>77</v>
-      </c>
-      <c r="I26" s="7">
-        <v>49942</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>97901</v>
+        <v>588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>532</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,112 +7570,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7">
-        <v>1482</v>
+        <v>64018</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I28" s="7">
-        <v>792</v>
+        <v>60321</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>542</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>543</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="N28" s="7">
-        <v>2274</v>
+        <v>124338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>127</v>
+        <v>545</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>763</v>
+        <v>29521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>38585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>551</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="N29" s="7">
-        <v>763</v>
+        <v>68106</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -7630,13 +7684,13 @@
         <v>3744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>557</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7645,13 +7699,13 @@
         <v>4186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7660,115 +7714,115 @@
         <v>7930</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>353</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>29521</v>
+        <v>763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="H31" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>38585</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>552</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>553</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M31" s="7">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>68106</v>
+        <v>763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>556</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>557</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>64018</v>
+        <v>1482</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>559</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>60321</v>
+        <v>792</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>561</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>562</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M32" s="7">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>124338</v>
+        <v>2274</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,106 +7884,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="D34" s="7">
-        <v>2070</v>
+        <v>214670</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="I34" s="7">
-        <v>2035</v>
+        <v>212694</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>357</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>594</v>
       </c>
       <c r="N34" s="7">
-        <v>4105</v>
+        <v>427363</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="D35" s="7">
-        <v>5138</v>
+        <v>113672</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>582</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>258</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="I35" s="7">
-        <v>2009</v>
+        <v>117637</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="N35" s="7">
-        <v>7146</v>
+        <v>231309</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>124</v>
+        <v>588</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>19</v>
@@ -7938,13 +7992,13 @@
         <v>13653</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>578</v>
+        <v>470</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>58</v>
+        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -7953,13 +8007,13 @@
         <v>10608</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>482</v>
+        <v>594</v>
       </c>
       <c r="M36" s="7">
         <v>34</v>
@@ -7968,115 +8022,115 @@
         <v>24261</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>92</v>
+        <v>417</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>113672</v>
+        <v>5138</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>581</v>
+        <v>414</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="H37" s="7">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>117637</v>
+        <v>2009</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="M37" s="7">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>231309</v>
+        <v>7146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>586</v>
+        <v>135</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>214670</v>
+        <v>2070</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="H38" s="7">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>212694</v>
+        <v>2035</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>146</v>
+        <v>358</v>
       </c>
       <c r="M38" s="7">
-        <v>594</v>
+        <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>427363</v>
+        <v>4105</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>596</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,6 +8182,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F832993-3865-4F9F-8DB8-9A81AFAB4497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507E3F90-E743-4423-8751-9C333FCE9679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D889740-F77E-404B-9669-821293FDCC38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F65F021F-C86E-4764-AFA0-F6790F24984A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="606">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,1783 +76,1786 @@
     <t>61,51%</t>
   </si>
   <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>54,41%</t>
   </si>
   <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
   </si>
   <si>
     <t>65,67%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
   </si>
 </sst>
 </file>
@@ -2264,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E74DDBA-CB49-44CB-BDAE-459A492A0D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A23C74-E9CA-46F9-B44D-2F0DF7969D2F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3160,7 +3163,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>105</v>
@@ -3175,10 +3178,10 @@
         <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3187,13 +3190,13 @@
         <v>4447</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3211,13 @@
         <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3229,7 +3232,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3238,13 +3241,13 @@
         <v>680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3303,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3312,13 +3315,13 @@
         <v>33120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3327,13 +3330,13 @@
         <v>31107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -3342,13 +3345,13 @@
         <v>64228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3366,13 @@
         <v>25857</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3378,13 +3381,13 @@
         <v>21654</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -3393,13 +3396,13 @@
         <v>47511</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3417,13 @@
         <v>1917</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3429,13 +3432,13 @@
         <v>2260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -3444,13 +3447,13 @@
         <v>4176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,7 +3474,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3486,7 +3489,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3495,13 +3498,13 @@
         <v>632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3525,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3552,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3611,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3620,13 +3623,13 @@
         <v>42053</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -3773,13 +3776,13 @@
         <v>1344</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3788,13 +3791,13 @@
         <v>1519</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3803,13 +3806,13 @@
         <v>2863</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3827,13 @@
         <v>1268</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3845,7 +3848,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3854,13 +3857,13 @@
         <v>1268</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3931,13 @@
         <v>174895</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H34" s="7">
         <v>229</v>
@@ -3943,13 +3946,13 @@
         <v>154030</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>495</v>
@@ -3958,13 +3961,13 @@
         <v>328925</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3982,13 @@
         <v>120408</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>177</v>
@@ -3994,13 +3997,13 @@
         <v>118906</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="M35" s="7">
         <v>355</v>
@@ -4009,13 +4012,13 @@
         <v>239314</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4033,13 @@
         <v>7895</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H36" s="7">
         <v>19</v>
@@ -4045,13 +4048,13 @@
         <v>13083</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>31</v>
@@ -4060,13 +4063,13 @@
         <v>20978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4084,13 @@
         <v>3315</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -4096,13 +4099,13 @@
         <v>4627</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -4111,13 +4114,13 @@
         <v>7942</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4135,13 @@
         <v>2582</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4153,7 +4156,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4162,13 +4165,13 @@
         <v>2582</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4227,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +4248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79B16F-E025-4F2C-92EA-FCED9F44CD25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12E95A-3A71-4529-8D22-1F52887661F2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4262,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4369,13 +4372,13 @@
         <v>4292</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4384,13 +4387,13 @@
         <v>4193</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4399,13 +4402,13 @@
         <v>8486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4423,13 @@
         <v>10198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4435,13 +4438,13 @@
         <v>5452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -4450,13 +4453,13 @@
         <v>15650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4489,13 @@
         <v>1630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4501,13 +4504,13 @@
         <v>1630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4546,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4558,7 +4561,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,7 +4597,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4609,7 +4612,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4680,13 @@
         <v>27775</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4692,13 +4695,13 @@
         <v>18147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4707,13 +4710,13 @@
         <v>45922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4731,13 @@
         <v>27587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4743,13 +4746,13 @@
         <v>30544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -4758,13 +4761,13 @@
         <v>58131</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4782,13 @@
         <v>2124</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4794,13 +4797,13 @@
         <v>2820</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4809,13 +4812,13 @@
         <v>4944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4848,13 @@
         <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4860,13 +4863,13 @@
         <v>661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4884,13 @@
         <v>687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4911,13 +4914,13 @@
         <v>687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4988,13 @@
         <v>51059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -5000,13 +5003,13 @@
         <v>42561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>140</v>
@@ -5015,13 +5018,13 @@
         <v>93619</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5039,13 @@
         <v>39030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5051,13 +5054,13 @@
         <v>48811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -5066,13 +5069,13 @@
         <v>87841</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5090,13 @@
         <v>3121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5102,13 +5105,13 @@
         <v>5219</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -5117,13 +5120,13 @@
         <v>8340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5141,13 @@
         <v>1305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5153,13 +5156,13 @@
         <v>1246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5168,13 +5171,13 @@
         <v>2551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5192,13 @@
         <v>652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5210,7 +5213,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5398,10 +5401,10 @@
         <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5410,13 +5413,13 @@
         <v>2454</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -5425,10 +5428,10 @@
         <v>5272</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>348</v>
@@ -5467,7 +5470,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -5527,13 +5530,13 @@
         <v>1693</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,7 +5592,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5601,13 +5604,13 @@
         <v>45157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5616,13 +5619,13 @@
         <v>25067</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -5631,13 +5634,13 @@
         <v>70224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,28 +5655,28 @@
         <v>37190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
       </c>
       <c r="I29" s="7">
-        <v>50065</v>
+        <v>50066</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>115</v>
@@ -5682,13 +5685,13 @@
         <v>87256</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5706,13 @@
         <v>4253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>172</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -5718,13 +5721,13 @@
         <v>9297</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5733,13 +5736,13 @@
         <v>13550</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5757,13 @@
         <v>1708</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5775,7 +5778,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5784,13 +5787,13 @@
         <v>1708</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5808,13 @@
         <v>1545</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5820,13 +5823,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>102</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>390</v>
+        <v>62</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -5835,7 +5838,7 @@
         <v>2139</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>322</v>
@@ -5868,7 +5871,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85023</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>42</v>
@@ -5939,13 +5942,13 @@
         <v>281602</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5963,13 @@
         <v>138735</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H35" s="7">
         <v>241</v>
@@ -5975,13 +5978,13 @@
         <v>170266</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M35" s="7">
         <v>440</v>
@@ -5990,13 +5993,13 @@
         <v>309001</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6014,13 @@
         <v>12316</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -6026,13 +6029,13 @@
         <v>21420</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -6041,13 +6044,13 @@
         <v>33736</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6065,13 @@
         <v>4810</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -6077,13 +6080,13 @@
         <v>3241</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -6095,10 +6098,10 @@
         <v>72</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6116,13 @@
         <v>3492</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6128,13 +6131,13 @@
         <v>1680</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -6143,13 +6146,13 @@
         <v>5172</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6208,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6226,7 +6229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB08033-405A-4694-A91A-E2CE9B219247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBD5A5A-1696-43CB-BA79-4902DDCF6BF9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6243,7 +6246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6350,13 +6353,13 @@
         <v>6268</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6365,13 +6368,13 @@
         <v>7580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -6380,13 +6383,13 @@
         <v>13849</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6404,13 @@
         <v>5892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6416,13 +6419,13 @@
         <v>4542</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6431,13 +6434,13 @@
         <v>10434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6455,13 @@
         <v>1047</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6467,13 +6470,13 @@
         <v>600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6482,13 +6485,13 @@
         <v>1647</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6539,7 +6542,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6578,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6590,7 +6593,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6661,13 @@
         <v>34136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -6673,13 +6676,13 @@
         <v>33878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -6688,13 +6691,13 @@
         <v>68014</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6712,13 @@
         <v>20797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -6724,13 +6727,13 @@
         <v>21041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>57</v>
@@ -6739,13 +6742,13 @@
         <v>41839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6763,13 @@
         <v>1452</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6781,7 +6784,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>471</v>
+        <v>137</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -6790,10 +6793,10 @@
         <v>2814</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>214</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>472</v>
@@ -6811,7 +6814,7 @@
         <v>1451</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
@@ -6832,7 +6835,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>474</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6841,13 +6844,13 @@
         <v>1451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6871,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6883,7 +6886,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>474</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6898,7 +6901,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,13 +6969,13 @@
         <v>62288</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -6981,13 +6984,13 @@
         <v>60972</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6996,13 +6999,13 @@
         <v>123260</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7071,13 @@
         <v>5497</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>495</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7083,10 +7086,10 @@
         <v>1808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>496</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>497</v>
@@ -7134,7 +7137,7 @@
         <v>1243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
@@ -7149,13 +7152,13 @@
         <v>2623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,7 +7179,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7185,13 +7188,13 @@
         <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7200,13 +7203,13 @@
         <v>1244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,7 +7265,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7274,13 +7277,13 @@
         <v>47959</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -7289,13 +7292,13 @@
         <v>49942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>145</v>
@@ -7304,13 +7307,13 @@
         <v>97901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7328,13 @@
         <v>22616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -7340,13 +7343,13 @@
         <v>16550</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -7355,13 +7358,13 @@
         <v>39166</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,10 +7397,10 @@
         <v>527</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -7406,13 +7409,13 @@
         <v>4566</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7436,7 @@
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7442,13 +7445,13 @@
         <v>765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -7463,7 +7466,7 @@
         <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,7 +7481,7 @@
         <v>588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
@@ -7508,7 +7511,7 @@
         <v>588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7648,13 +7651,13 @@
         <v>38585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>94</v>
@@ -7663,13 +7666,13 @@
         <v>68106</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7687,13 @@
         <v>3744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -7699,13 +7702,13 @@
         <v>4186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7714,13 +7717,13 @@
         <v>7930</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>563</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7738,13 @@
         <v>763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7756,7 +7759,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -7765,13 +7768,13 @@
         <v>763</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>353</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7789,13 @@
         <v>1482</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7801,13 +7804,13 @@
         <v>792</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -7816,13 +7819,13 @@
         <v>2274</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>572</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,13 +7995,13 @@
         <v>13653</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -8007,10 +8010,10 @@
         <v>10608</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>594</v>
@@ -8025,7 +8028,7 @@
         <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>596</v>
@@ -8043,10 +8046,10 @@
         <v>5138</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>597</v>
@@ -8064,7 +8067,7 @@
         <v>599</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>181</v>
+        <v>600</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -8073,13 +8076,13 @@
         <v>7146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8097,13 @@
         <v>2070</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8109,13 +8112,13 @@
         <v>2035</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>599</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>358</v>
+        <v>605</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -8124,13 +8127,13 @@
         <v>4105</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,7 +8189,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
